--- a/tests/db/PCVH_FCVH.xlsx
+++ b/tests/db/PCVH_FCVH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\AppData\Local\Programs\Python\Python310\MuniEntry\tests\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\AppData\Local\Programs\Python\Python310\MuniEntry\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA68D7-DD81-4C07-A440-2EDAE76E3187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCDE48A-CA3F-4D5D-8F4F-29613CB96811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9015" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47532" yWindow="8304" windowWidth="21588" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MuniEntryPleas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="139">
   <si>
     <t>Case</t>
   </si>
@@ -58,6 +58,48 @@
     <t>Atty Type</t>
   </si>
   <si>
+    <t>17TRD22590</t>
+  </si>
+  <si>
+    <t>17TRD22590-A</t>
+  </si>
+  <si>
+    <t>BORHAM</t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>ILLEGAL LICENSE PLATES</t>
+  </si>
+  <si>
+    <t>335.11(A)</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>CELEBREZZE</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>20TRC09471</t>
+  </si>
+  <si>
+    <t>20TRC09471-A</t>
+  </si>
+  <si>
+    <t>HENDERSON</t>
+  </si>
+  <si>
     <t>CHASE</t>
   </si>
   <si>
@@ -73,21 +115,165 @@
     <t>U</t>
   </si>
   <si>
+    <t>JUNGA</t>
+  </si>
+  <si>
+    <t>CHRIS</t>
+  </si>
+  <si>
+    <t>20TRC09471-B</t>
+  </si>
+  <si>
+    <t>NO VALID OL   UCM</t>
+  </si>
+  <si>
+    <t>4510.12</t>
+  </si>
+  <si>
+    <t>UCM</t>
+  </si>
+  <si>
+    <t>20TRC09471-C</t>
+  </si>
+  <si>
+    <t>DRIVING IN MARKED LANES</t>
+  </si>
+  <si>
+    <t>4511.33</t>
+  </si>
+  <si>
     <t>MM</t>
   </si>
   <si>
+    <t>20TRC09471-D</t>
+  </si>
+  <si>
+    <t>TRAFFIC CONTROL DEVICE</t>
+  </si>
+  <si>
+    <t>4511.12</t>
+  </si>
+  <si>
+    <t>20TRC09471-E</t>
+  </si>
+  <si>
+    <t>SEATBELT REQUIRED DRIVER</t>
+  </si>
+  <si>
+    <t>4513.263B1</t>
+  </si>
+  <si>
+    <t>21CRB00615</t>
+  </si>
+  <si>
+    <t>21CRB00615-A</t>
+  </si>
+  <si>
+    <t>OBSTRUCT OFFICIAL BUSINESS</t>
+  </si>
+  <si>
+    <t>2921.31</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>21CRB01597</t>
+  </si>
+  <si>
+    <t>21CRB01597-A</t>
+  </si>
+  <si>
+    <t>ANSLEY</t>
+  </si>
+  <si>
+    <t>JACOB</t>
+  </si>
+  <si>
+    <t>POSSESSION OF MARIHUANA</t>
+  </si>
+  <si>
+    <t>2925.11C3</t>
+  </si>
+  <si>
     <t>MALLORY</t>
   </si>
   <si>
+    <t>21TRC05611</t>
+  </si>
+  <si>
+    <t>21TRC05611-A</t>
+  </si>
+  <si>
+    <t>BARKSCHAT</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>OVI ALCOHOL / DRUGS 3RD</t>
+  </si>
+  <si>
+    <t>4511.19A1A***</t>
+  </si>
+  <si>
+    <t>21TRC05611-B</t>
+  </si>
+  <si>
+    <t>OVI REFUSAL 3RD/10YR PRIOR 20YR</t>
+  </si>
+  <si>
+    <t>4511.19A2***</t>
+  </si>
+  <si>
+    <t>21TRC05611-C</t>
+  </si>
+  <si>
+    <t>21TRC05611-D</t>
+  </si>
+  <si>
+    <t>21TRC08121</t>
+  </si>
+  <si>
+    <t>21TRC08121-A</t>
+  </si>
+  <si>
+    <t>COYAN</t>
+  </si>
+  <si>
+    <t>RONALD</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
+    <t>BOWEN</t>
+  </si>
+  <si>
+    <t>BRYAN</t>
+  </si>
+  <si>
+    <t>21TRC08121-B</t>
+  </si>
+  <si>
+    <t>OVI REFUSAL 1ST/10YR PRIOR 20YR</t>
+  </si>
+  <si>
+    <t>4511.19A2*</t>
+  </si>
+  <si>
+    <t>21TRC08121-C</t>
+  </si>
+  <si>
     <t>TURN AND STOP SIGNALS</t>
   </si>
   <si>
     <t>4511.39</t>
   </si>
   <si>
+    <t>21TRC08121-D</t>
+  </si>
+  <si>
     <t>21TRC10109</t>
   </si>
   <si>
@@ -215,6 +401,42 @@
   </si>
   <si>
     <t>4511.13C</t>
+  </si>
+  <si>
+    <t>22TRC00570</t>
+  </si>
+  <si>
+    <t>22TRC00570-A</t>
+  </si>
+  <si>
+    <t>Kudela</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>1501.17-5-04</t>
+  </si>
+  <si>
+    <t>22TRC00571</t>
+  </si>
+  <si>
+    <t>22TRC00571-A</t>
+  </si>
+  <si>
+    <t>Mick</t>
+  </si>
+  <si>
+    <t>Jagger</t>
+  </si>
+  <si>
+    <t>Test TWO</t>
+  </si>
+  <si>
+    <t>1501.17-11-01</t>
   </si>
 </sst>
 </file>
@@ -688,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -737,63 +959,65 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="25.5">
+    <row r="2" spans="1:12" ht="38.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="51">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="38.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
@@ -802,190 +1026,206 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="25.5">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="25.5">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="38.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="38.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="38.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="51">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="25.5">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="25.5">
+        <v>32</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="38.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -993,85 +1233,89 @@
         <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="25.5">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="38.25">
       <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="38.25">
+    <row r="11" spans="1:12" ht="25.5">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
@@ -1079,31 +1323,35 @@
       <c r="I11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="38.25">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
@@ -1111,11 +1359,671 @@
       <c r="I12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="23.55" customHeight="1"/>
+    <row r="13" spans="1:12" ht="38.25">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="38.25">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="25.5">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="38.25">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="38.25">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="38.25">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="25.5">
+      <c r="A19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="51">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="25.5">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="25.5">
+      <c r="A22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="38.25">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="51">
+      <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="25.5">
+      <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="25.5">
+      <c r="A26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="25.5">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="38.25">
+      <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="38.25">
+      <c r="A29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="23.55" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
